--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -94,100 +70,82 @@
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
@@ -196,76 +154,82 @@
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -623,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -742,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
         <v>31</v>
@@ -934,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7467532467532467</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,31 +1024,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>427</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L10">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,45 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8203125</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,45 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.4375</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,45 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,45 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8823529411764706</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,602 +1255,434 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L20">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.71875</v>
+      </c>
+      <c r="L21">
+        <v>115</v>
+      </c>
+      <c r="M21">
+        <v>115</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="L22">
+        <v>101</v>
+      </c>
+      <c r="M22">
+        <v>101</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L26">
+        <v>73</v>
+      </c>
+      <c r="M26">
+        <v>73</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.64</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>18</v>
       </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K17">
-        <v>0.875</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3047210300429185</v>
-      </c>
-      <c r="C18">
-        <v>71</v>
-      </c>
-      <c r="D18">
-        <v>71</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>162</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K28">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L28">
+        <v>59</v>
+      </c>
+      <c r="M28">
+        <v>59</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K18">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L18">
+      <c r="K29">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L29">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M18">
-        <v>48</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C19">
+      <c r="K32">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>21</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>65</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
-      <c r="M19">
-        <v>46</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2125</v>
-      </c>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>63</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L20">
-        <v>43</v>
-      </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>39</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L21">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>24</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>101</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L22">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>179</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L26">
-        <v>45</v>
-      </c>
-      <c r="M26">
-        <v>45</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28">
-        <v>10</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29">
-        <v>0.76</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30">
-        <v>0.75</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L31">
-        <v>28</v>
-      </c>
-      <c r="M31">
-        <v>28</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L32">
-        <v>23</v>
-      </c>
-      <c r="M32">
-        <v>23</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.684931506849315</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L33">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1994,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6470588235294118</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2020,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2046,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2072,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2098,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2124,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5789473684210527</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2150,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5727699530516432</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L40">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2176,15 +1876,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
         <v>14</v>
@@ -2202,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5138888888888888</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L42">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2228,15 +1928,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.4642857142857143</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2254,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.45</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2280,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.4496124031007752</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2306,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2332,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.3096234309623431</v>
+      </c>
+      <c r="L47">
         <v>74</v>
       </c>
-      <c r="K47">
-        <v>0.4</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
       <c r="M47">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2358,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.3636363636363636</v>
+        <v>0.28125</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2384,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.36</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2410,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.358695652173913</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2441,16 +2141,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.3333333333333333</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2462,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.28125</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2488,47 +2188,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.2432432432432433</v>
+        <v>0.008407286314806165</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>28</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.2368421052631579</v>
+        <v>0.004505954296749276</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2540,59 +2240,33 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>29</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.02195121951219512</v>
+        <v>0.004375</v>
       </c>
       <c r="L55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K56">
-        <v>0.008028545941123996</v>
-      </c>
-      <c r="L56">
-        <v>9</v>
-      </c>
-      <c r="M56">
-        <v>11</v>
-      </c>
-      <c r="N56">
-        <v>0.82</v>
-      </c>
-      <c r="O56">
-        <v>0.18</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1112</v>
+        <v>3186</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,169 +70,151 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -587,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -683,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -706,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +815,13 @@
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -856,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.589041095890411</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2133333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1724806201550388</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>427</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9152542372881356</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1322751322751323</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1006711409395973</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8660714285714286</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1141,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1193,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,13 +1219,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1252,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1260,13 +1245,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1278,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1286,13 +1271,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1304,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1312,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7391304347826086</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1330,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1338,13 +1323,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7254901960784313</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1356,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1364,13 +1349,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.71875</v>
+        <v>0.73125</v>
       </c>
       <c r="L21">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M21">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1382,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1390,13 +1375,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7112676056338029</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L22">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1408,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1416,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1434,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1442,13 +1427,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7037037037037037</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1460,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1468,13 +1453,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1486,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1494,13 +1479,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6886792452830188</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1512,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1520,13 +1505,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.64</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1538,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1546,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6276595744680851</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1564,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1572,13 +1557,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6190476190476191</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1590,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1598,13 +1583,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1616,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1624,13 +1609,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5588235294117647</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1642,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1650,13 +1635,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1668,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1676,13 +1661,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5065274151436031</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1694,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>189</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1702,13 +1687,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1720,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1728,13 +1713,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1746,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1780,13 +1765,13 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.4352941176470588</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L37">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1798,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>192</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1806,13 +1791,13 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.4305084745762712</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1824,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1832,13 +1817,13 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.4269662921348314</v>
+        <v>0.425</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1850,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1858,25 +1843,25 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.4222222222222222</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1884,13 +1869,13 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1902,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1910,13 +1895,13 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3972602739726027</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1928,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1936,13 +1921,13 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.3939393939393939</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1954,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1962,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.3692307692307693</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1980,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1988,13 +1973,13 @@
         <v>61</v>
       </c>
       <c r="K45">
-        <v>0.3488372093023256</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2006,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2014,13 +1999,13 @@
         <v>62</v>
       </c>
       <c r="K46">
-        <v>0.3205128205128205</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2032,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2040,13 +2025,13 @@
         <v>63</v>
       </c>
       <c r="K47">
-        <v>0.3096234309623431</v>
+        <v>0.328125</v>
       </c>
       <c r="L47">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2058,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>165</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2066,13 +2051,13 @@
         <v>64</v>
       </c>
       <c r="K48">
-        <v>0.28125</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2084,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2092,13 +2077,13 @@
         <v>65</v>
       </c>
       <c r="K49">
-        <v>0.2714285714285714</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2110,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2118,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="K50">
-        <v>0.1805555555555556</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L50">
         <v>13</v>
@@ -2136,137 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51">
-        <v>0.02125279642058166</v>
-      </c>
-      <c r="L51">
-        <v>19</v>
-      </c>
-      <c r="M51">
-        <v>19</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52">
-        <v>0.0144284128745838</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K53">
-        <v>0.008407286314806165</v>
-      </c>
-      <c r="L53">
-        <v>18</v>
-      </c>
-      <c r="M53">
-        <v>20</v>
-      </c>
-      <c r="N53">
-        <v>0.9</v>
-      </c>
-      <c r="O53">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K54">
-        <v>0.004505954296749276</v>
-      </c>
-      <c r="L54">
-        <v>14</v>
-      </c>
-      <c r="M54">
-        <v>14</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55">
-        <v>0.004375</v>
-      </c>
-      <c r="L55">
-        <v>14</v>
-      </c>
-      <c r="M55">
-        <v>15</v>
-      </c>
-      <c r="N55">
-        <v>0.93</v>
-      </c>
-      <c r="O55">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3186</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
